--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
@@ -369,185 +369,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>0.2028382723242572</v>
-      </c>
-      <c r="D3">
-        <v>-0.9007664217083988</v>
-      </c>
       <c r="E3">
         <v>-1.120856461469888</v>
       </c>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>-1.120856461469888</v>
       </c>
-      <c r="BA3">
-        <v>-1.120856461469888</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>0.8592091074224761</v>
-      </c>
-      <c r="D4">
-        <v>-0.2217720634653642</v>
-      </c>
-      <c r="E4">
-        <v>-0.5959239132369731</v>
-      </c>
-      <c r="F4">
-        <v>0.3150445116460121</v>
-      </c>
       <c r="G4">
         <v>0.2946875655135184</v>
       </c>
@@ -850,32 +826,11 @@
       <c r="AZ4">
         <v>0.2946875655135184</v>
       </c>
-      <c r="BA4">
-        <v>0.2946875655135184</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.3143384039427932</v>
-      </c>
-      <c r="D5">
-        <v>-0.6476091688679797</v>
-      </c>
-      <c r="E5">
-        <v>-0.2513816674895364</v>
-      </c>
-      <c r="F5">
-        <v>0.160927089165086</v>
-      </c>
-      <c r="G5">
-        <v>0.6309321758273256</v>
-      </c>
-      <c r="H5">
-        <v>1.394716403166685</v>
-      </c>
       <c r="I5">
         <v>1.242549344471122</v>
       </c>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>1.242549344471122</v>
       </c>
-      <c r="BA5">
-        <v>1.242549344471122</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.7274648438581388</v>
-      </c>
-      <c r="F6">
-        <v>-0.355115260154315</v>
-      </c>
-      <c r="G6">
-        <v>0.5741753892511303</v>
-      </c>
-      <c r="H6">
-        <v>1.242303482995033</v>
-      </c>
-      <c r="I6">
-        <v>2.01634251950924</v>
-      </c>
-      <c r="J6">
-        <v>1.129570842833005</v>
-      </c>
       <c r="K6">
         <v>1.180122656701199</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>1.180122656701199</v>
       </c>
-      <c r="BA6">
-        <v>1.180122656701199</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>-0.02255592609043955</v>
-      </c>
-      <c r="H7">
-        <v>0.4076292908953061</v>
-      </c>
-      <c r="I7">
-        <v>2.113636275181219</v>
-      </c>
-      <c r="J7">
-        <v>1.024217516713644</v>
-      </c>
       <c r="K7">
-        <v>1.939772997598466</v>
+        <v>0.9288717675470126</v>
       </c>
       <c r="L7">
-        <v>1.129049187797948</v>
+        <v>0.9006569003772169</v>
       </c>
       <c r="M7">
         <v>1.381744454873757</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>1.381744454873757</v>
       </c>
-      <c r="BA7">
-        <v>1.381744454873757</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.114110830293114</v>
-      </c>
-      <c r="J8">
-        <v>0.4296198149608133</v>
-      </c>
       <c r="K8">
-        <v>1.82228671968252</v>
+        <v>0.398603063236469</v>
       </c>
       <c r="L8">
-        <v>1.499659000328402</v>
+        <v>0.4141666450523163</v>
       </c>
       <c r="M8">
-        <v>2.090021059558644</v>
+        <v>1.416624765035412</v>
       </c>
       <c r="N8">
-        <v>1.633367354477078</v>
+        <v>1.298949644080372</v>
       </c>
       <c r="O8">
         <v>1.404039427736437</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>1.404039427736437</v>
       </c>
-      <c r="BA8">
-        <v>1.404039427736437</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>0.9837190957102449</v>
-      </c>
       <c r="L9">
-        <v>0.725344957465901</v>
+        <v>0.3701946914329346</v>
       </c>
       <c r="M9">
-        <v>1.706953953329871</v>
+        <v>0.673275818401331</v>
       </c>
       <c r="N9">
-        <v>2.086708675575388</v>
+        <v>0.7446484179501223</v>
       </c>
       <c r="O9">
-        <v>2.084642581417584</v>
+        <v>1.075154359849861</v>
       </c>
       <c r="P9">
-        <v>1.649731081352623</v>
+        <v>1.485127130420993</v>
       </c>
       <c r="Q9">
         <v>1.593617458167307</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>1.593617458167307</v>
       </c>
-      <c r="BA9">
-        <v>1.593617458167307</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.038864963750785</v>
-      </c>
       <c r="N10">
-        <v>1.040310439270997</v>
+        <v>0.6239897952478701</v>
       </c>
       <c r="O10">
-        <v>2.074113214290518</v>
+        <v>0.7091406057755156</v>
       </c>
       <c r="P10">
-        <v>1.650163161821649</v>
+        <v>0.8988967199517361</v>
       </c>
       <c r="Q10">
-        <v>1.521991363853026</v>
+        <v>1.214249019249602</v>
       </c>
       <c r="R10">
-        <v>2.031337289618551</v>
+        <v>1.938044824544427</v>
       </c>
       <c r="S10">
         <v>1.885212754467758</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>1.885212754467758</v>
       </c>
-      <c r="BA10">
-        <v>1.885212754467758</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.185672783734448</v>
-      </c>
       <c r="P11">
-        <v>0.9836523761878047</v>
+        <v>0.7633094684782238</v>
       </c>
       <c r="Q11">
-        <v>1.395540746188728</v>
+        <v>0.844972381027409</v>
       </c>
       <c r="R11">
-        <v>1.877252575451061</v>
+        <v>1.197301207077017</v>
       </c>
       <c r="S11">
-        <v>1.6904035303825</v>
+        <v>1.180565832117297</v>
       </c>
       <c r="T11">
-        <v>1.81400703472574</v>
+        <v>1.730502563828185</v>
       </c>
       <c r="U11">
         <v>1.877372574190161</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>1.877372574190161</v>
       </c>
-      <c r="BA11">
-        <v>1.877372574190161</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>0.977560632649177</v>
-      </c>
       <c r="R12">
-        <v>1.662450519617842</v>
+        <v>0.9515933740982696</v>
       </c>
       <c r="S12">
-        <v>1.669580048986519</v>
+        <v>0.9506668763555215</v>
       </c>
       <c r="T12">
-        <v>1.771330166535856</v>
+        <v>1.20920901052266</v>
       </c>
       <c r="U12">
-        <v>2.014077225132471</v>
+        <v>1.638669199130427</v>
       </c>
       <c r="V12">
-        <v>2.208009493344054</v>
+        <v>1.95207711838874</v>
       </c>
       <c r="W12">
-        <v>2.300089002375394</v>
+        <v>2.211325510218898</v>
       </c>
       <c r="X12">
-        <v>2.296241910075758</v>
+        <v>2.320468093590722</v>
       </c>
       <c r="Y12">
         <v>2.279995067217899</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>2.279995067217899</v>
       </c>
-      <c r="BA12">
-        <v>2.279995067217899</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>1.193161945546328</v>
-      </c>
-      <c r="S13">
-        <v>1.15235646067251</v>
-      </c>
       <c r="T13">
-        <v>1.508861108684512</v>
+        <v>1.022913685671933</v>
       </c>
       <c r="U13">
-        <v>1.678059566830714</v>
+        <v>1.142517737539994</v>
       </c>
       <c r="V13">
-        <v>2.16843088950498</v>
+        <v>1.265658248521984</v>
       </c>
       <c r="W13">
-        <v>2.190100401513395</v>
+        <v>1.513838358900466</v>
       </c>
       <c r="X13">
-        <v>1.948889539247078</v>
+        <v>1.753251432658076</v>
       </c>
       <c r="Y13">
-        <v>1.88787455560655</v>
+        <v>1.540918326052476</v>
       </c>
       <c r="Z13">
-        <v>1.224414593777601</v>
+        <v>1.036239343320755</v>
       </c>
       <c r="AA13">
-        <v>1.110508995085002</v>
+        <v>1.095903126316466</v>
       </c>
       <c r="AB13">
-        <v>1.120504106595632</v>
+        <v>1.142800289129831</v>
       </c>
       <c r="AC13">
         <v>1.025257057800411</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>1.025257057800411</v>
       </c>
-      <c r="BA13">
-        <v>1.025257057800411</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>1.181194725077783</v>
-      </c>
-      <c r="U14">
-        <v>1.25820815509623</v>
-      </c>
-      <c r="V14">
-        <v>1.842186393345191</v>
-      </c>
       <c r="W14">
-        <v>1.872539320243827</v>
+        <v>1.202562875806956</v>
       </c>
       <c r="X14">
-        <v>1.773422880168973</v>
+        <v>1.273686549772912</v>
       </c>
       <c r="Y14">
-        <v>1.618423317420281</v>
+        <v>1.20058480213463</v>
       </c>
       <c r="Z14">
-        <v>1.331255476865678</v>
+        <v>1.010297891741785</v>
       </c>
       <c r="AA14">
-        <v>1.400566035871109</v>
+        <v>1.063472944477306</v>
       </c>
       <c r="AB14">
-        <v>1.381641980784787</v>
+        <v>1.156859643506358</v>
       </c>
       <c r="AC14">
-        <v>0.6487450558480656</v>
+        <v>0.5773070399857971</v>
       </c>
       <c r="AD14">
-        <v>0.5563247180809361</v>
+        <v>0.2803494251802263</v>
       </c>
       <c r="AE14">
-        <v>-1.000425304790598</v>
+        <v>0.8137456736830195</v>
       </c>
       <c r="AF14">
-        <v>-1.841794035573197</v>
+        <v>-1.788000783651811</v>
       </c>
       <c r="AG14">
         <v>-1.788000783651811</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>-1.788000783651811</v>
       </c>
-      <c r="BA14">
-        <v>-1.788000783651811</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>1.407528284645143</v>
-      </c>
-      <c r="W15">
-        <v>1.421653442513215</v>
-      </c>
-      <c r="X15">
-        <v>1.357489670086509</v>
-      </c>
-      <c r="Y15">
-        <v>1.361878859095889</v>
-      </c>
-      <c r="Z15">
-        <v>1.258793115089385</v>
-      </c>
       <c r="AA15">
-        <v>1.50766063822898</v>
+        <v>1.110313939574326</v>
       </c>
       <c r="AB15">
-        <v>1.558061098061336</v>
+        <v>1.133150799963056</v>
       </c>
       <c r="AC15">
-        <v>1.523187652092983</v>
+        <v>0.9679553839707422</v>
       </c>
       <c r="AD15">
-        <v>1.587078554743204</v>
+        <v>0.855281508838468</v>
       </c>
       <c r="AE15">
-        <v>3.013584382764045</v>
+        <v>1.30966355756772</v>
       </c>
       <c r="AF15">
-        <v>2.859952625832229</v>
+        <v>-4.916332952555802</v>
       </c>
       <c r="AG15">
-        <v>2.99720978720075</v>
+        <v>-0.415982961498651</v>
       </c>
       <c r="AH15">
-        <v>1.264747916836839</v>
+        <v>-1.484481523646708</v>
       </c>
       <c r="AI15">
-        <v>-0.5713481720502012</v>
+        <v>-1.434438137829841</v>
       </c>
       <c r="AJ15">
-        <v>-0.2827693069175186</v>
+        <v>-1.098964423305859</v>
       </c>
       <c r="AK15">
         <v>-1.098964423305859</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>-1.098964423305859</v>
       </c>
-      <c r="BA15">
-        <v>-1.098964423305859</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.474520157657322</v>
-      </c>
-      <c r="Z16">
-        <v>1.38177488650395</v>
-      </c>
-      <c r="AA16">
-        <v>1.431037652675404</v>
-      </c>
-      <c r="AB16">
-        <v>1.438179870429934</v>
-      </c>
-      <c r="AC16">
-        <v>1.511445255682653</v>
-      </c>
-      <c r="AD16">
-        <v>1.574715587731434</v>
-      </c>
       <c r="AE16">
-        <v>2.208020272631339</v>
+        <v>1.125081241076598</v>
       </c>
       <c r="AF16">
-        <v>2.137232723365701</v>
+        <v>-6.449362650970325</v>
       </c>
       <c r="AG16">
-        <v>2.016354815608512</v>
+        <v>0.987586589522893</v>
       </c>
       <c r="AH16">
-        <v>3.566910651400446</v>
+        <v>0.7587717871427202</v>
       </c>
       <c r="AI16">
-        <v>4.71430177854022</v>
+        <v>0.8159375071586261</v>
       </c>
       <c r="AJ16">
-        <v>6.200092505048471</v>
+        <v>1.122873944479474</v>
       </c>
       <c r="AK16">
-        <v>4.895062464652677</v>
+        <v>1.426719405738508</v>
       </c>
       <c r="AL16">
-        <v>2.222432428535481</v>
+        <v>1.659091542859148</v>
       </c>
       <c r="AM16">
-        <v>2.24168824042239</v>
+        <v>1.85385197842538</v>
       </c>
       <c r="AN16">
-        <v>2.133246428602353</v>
+        <v>1.916393754370604</v>
       </c>
       <c r="AO16">
         <v>1.916393754370604</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>1.916393754370604</v>
       </c>
-      <c r="BA16">
-        <v>1.916393754370604</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.431339930988607</v>
-      </c>
-      <c r="AD17">
-        <v>1.433737359020726</v>
-      </c>
-      <c r="AE17">
-        <v>1.482787138638519</v>
-      </c>
-      <c r="AF17">
-        <v>1.406065827577851</v>
-      </c>
-      <c r="AG17">
-        <v>1.62270822054229</v>
-      </c>
       <c r="AH17">
-        <v>1.66247230092087</v>
+        <v>0.9133741272254525</v>
       </c>
       <c r="AI17">
-        <v>1.670967259579537</v>
+        <v>0.9730106499820534</v>
       </c>
       <c r="AJ17">
-        <v>1.752097462684876</v>
+        <v>1.114753517030009</v>
       </c>
       <c r="AK17">
-        <v>2.346103318213988</v>
+        <v>1.101852381118684</v>
       </c>
       <c r="AL17">
-        <v>3.425670122124114</v>
+        <v>1.163281843182573</v>
       </c>
       <c r="AM17">
-        <v>3.429058262078644</v>
+        <v>1.2808239555127</v>
       </c>
       <c r="AN17">
-        <v>3.260264546812519</v>
+        <v>1.358354219817404</v>
       </c>
       <c r="AO17">
-        <v>-0.1354275086414392</v>
+        <v>0.5205511175203181</v>
       </c>
       <c r="AP17">
-        <v>-0.6800305325212697</v>
+        <v>-0.2882829247660479</v>
       </c>
       <c r="AQ17">
-        <v>-0.6738153173904027</v>
+        <v>-0.6079479926716203</v>
       </c>
       <c r="AR17">
-        <v>-0.692247441448246</v>
+        <v>-0.7359525160776204</v>
       </c>
       <c r="AS17">
         <v>-0.7359525160776204</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>-0.7359525160776204</v>
       </c>
-      <c r="BA17">
-        <v>-0.7359525160776204</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>1.470005134016983</v>
-      </c>
-      <c r="AH18">
-        <v>1.462296473467983</v>
-      </c>
-      <c r="AI18">
-        <v>1.401986833632551</v>
-      </c>
-      <c r="AJ18">
-        <v>1.552595945178092</v>
-      </c>
-      <c r="AK18">
-        <v>1.147552399926921</v>
-      </c>
       <c r="AL18">
-        <v>1.25300757806337</v>
+        <v>1.062977953718724</v>
       </c>
       <c r="AM18">
-        <v>1.795678510070919</v>
+        <v>1.10318956580997</v>
       </c>
       <c r="AN18">
-        <v>1.905066998270244</v>
+        <v>1.140644268293456</v>
       </c>
       <c r="AO18">
-        <v>1.756214305430781</v>
+        <v>1.203890928880202</v>
       </c>
       <c r="AP18">
-        <v>1.563059350442941</v>
+        <v>0.9814522951840488</v>
       </c>
       <c r="AQ18">
-        <v>1.67670478866615</v>
+        <v>0.8021760422591839</v>
       </c>
       <c r="AR18">
-        <v>1.168821580544521</v>
+        <v>0.6489285084265051</v>
       </c>
       <c r="AS18">
-        <v>0.9794361377544636</v>
+        <v>0.3517304536567734</v>
       </c>
       <c r="AT18">
-        <v>0.287495466512433</v>
+        <v>0.1328794705491632</v>
       </c>
       <c r="AU18">
-        <v>0.1233178182500572</v>
+        <v>-0.06520462171909491</v>
       </c>
       <c r="AV18">
-        <v>-0.09977030619552352</v>
+        <v>-0.187152549496028</v>
       </c>
       <c r="AW18">
         <v>-0.187152549496028</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>-0.187152549496028</v>
       </c>
-      <c r="BA18">
-        <v>-0.187152549496028</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>1.452942155280756</v>
-      </c>
-      <c r="AL19">
-        <v>1.331157204970124</v>
-      </c>
-      <c r="AM19">
-        <v>1.361393474156625</v>
-      </c>
-      <c r="AN19">
-        <v>1.33602747915389</v>
-      </c>
-      <c r="AO19">
-        <v>1.815404854297875</v>
-      </c>
       <c r="AP19">
-        <v>1.313652164456647</v>
+        <v>1.001877243257909</v>
       </c>
       <c r="AQ19">
-        <v>1.367161799587735</v>
+        <v>0.9525979266463702</v>
       </c>
       <c r="AR19">
-        <v>1.231048455321426</v>
+        <v>0.906735036162809</v>
       </c>
       <c r="AS19">
-        <v>1.589722600931798</v>
+        <v>0.9308444302480678</v>
       </c>
       <c r="AT19">
-        <v>1.65944891182539</v>
+        <v>0.8679080298191755</v>
       </c>
       <c r="AU19">
-        <v>1.77500207390533</v>
+        <v>0.7367476213790747</v>
       </c>
       <c r="AV19">
-        <v>1.359191874382004</v>
+        <v>0.5818712200032161</v>
       </c>
       <c r="AW19">
-        <v>0.7911557381817147</v>
+        <v>0.4186921370205043</v>
       </c>
       <c r="AX19">
-        <v>0.3967335531545713</v>
+        <v>0.5283432505880592</v>
       </c>
       <c r="AY19">
-        <v>0.6196879289662949</v>
+        <v>0.5869668956646645</v>
       </c>
       <c r="AZ19">
-        <v>0.6151910652193671</v>
-      </c>
-      <c r="BA19">
         <v>0.6150340712028246</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>1.048633029722046</v>
-      </c>
-      <c r="AP20">
-        <v>0.9808475142060624</v>
-      </c>
-      <c r="AQ20">
-        <v>0.9975784437820101</v>
-      </c>
-      <c r="AR20">
-        <v>0.9443349269967927</v>
-      </c>
-      <c r="AS20">
-        <v>1.051845041449573</v>
-      </c>
       <c r="AT20">
-        <v>1.087031429422725</v>
+        <v>0.8712867239818456</v>
       </c>
       <c r="AU20">
-        <v>1.236199146024375</v>
+        <v>0.8257605453711792</v>
       </c>
       <c r="AV20">
-        <v>1.366250360223398</v>
+        <v>0.7745673003662912</v>
       </c>
       <c r="AW20">
-        <v>1.58943766652242</v>
+        <v>0.7842002915175783</v>
       </c>
       <c r="AX20">
-        <v>0.7407726443195539</v>
+        <v>0.8122218530175696</v>
       </c>
       <c r="AY20">
-        <v>0.9145927822770572</v>
+        <v>0.8208952814083625</v>
       </c>
       <c r="AZ20">
-        <v>1.258496331371473</v>
-      </c>
-      <c r="BA20">
-        <v>1.217702097822548</v>
+        <v>0.831632580682462</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>0.9214834091929358</v>
-      </c>
-      <c r="AT21">
-        <v>0.8723068369233866</v>
-      </c>
-      <c r="AU21">
-        <v>0.8692599121440825</v>
-      </c>
-      <c r="AV21">
-        <v>0.8183281861370517</v>
-      </c>
-      <c r="AW21">
-        <v>0.9969339137931854</v>
-      </c>
       <c r="AX21">
-        <v>0.728673798030699</v>
+        <v>0.7841434265638991</v>
       </c>
       <c r="AY21">
-        <v>0.7037070939912793</v>
+        <v>0.7627929241671216</v>
       </c>
       <c r="AZ21">
-        <v>1.216740446418374</v>
-      </c>
-      <c r="BA21">
-        <v>1.519045701942523</v>
+        <v>0.7439472831971772</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>0.7661497709166687</v>
-      </c>
-      <c r="AX22">
-        <v>0.6545473893047937</v>
-      </c>
-      <c r="AY22">
-        <v>0.6889442091698506</v>
-      </c>
-      <c r="AZ22">
-        <v>0.7263680976565601</v>
-      </c>
-      <c r="BA22">
-        <v>1.059368094012414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.7024828248506143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>-0.9147268599428826</v>
       </c>
       <c r="AG17">
-        <v>-3.357986809108382</v>
+        <v>-5.423670413205206</v>
       </c>
       <c r="AH17">
         <v>-3.258619210312885</v>
@@ -2415,19 +2415,19 @@
         <v>0.1022244835662045</v>
       </c>
       <c r="AG18">
-        <v>-0.9334188790558695</v>
+        <v>-13.50936601867715</v>
       </c>
       <c r="AH18">
-        <v>-1.154010671959604</v>
+        <v>-1.055440300316768</v>
       </c>
       <c r="AI18">
-        <v>-1.915474612301826</v>
+        <v>-0.7303748984839098</v>
       </c>
       <c r="AJ18">
-        <v>-0.6863413708432242</v>
+        <v>-1.272609278145864</v>
       </c>
       <c r="AK18">
-        <v>-0.1388955462784724</v>
+        <v>-0.4696916954089025</v>
       </c>
       <c r="AL18">
         <v>0.4255262881966981</v>
@@ -2486,31 +2486,31 @@
         <v>0.871492095125892</v>
       </c>
       <c r="AG19">
-        <v>0.7624545735623434</v>
+        <v>-5.340195697197514</v>
       </c>
       <c r="AH19">
-        <v>0.8247644507631824</v>
+        <v>0.7863250618339368</v>
       </c>
       <c r="AI19">
-        <v>0.552935955465661</v>
+        <v>0.7919242371448698</v>
       </c>
       <c r="AJ19">
-        <v>1.199013851879926</v>
+        <v>0.7102324065039856</v>
       </c>
       <c r="AK19">
-        <v>1.873103062899428</v>
+        <v>1.31203482915998</v>
       </c>
       <c r="AL19">
-        <v>2.711235034366544</v>
+        <v>2.531417074021203</v>
       </c>
       <c r="AM19">
-        <v>2.776368360756853</v>
+        <v>2.421601157547526</v>
       </c>
       <c r="AN19">
-        <v>3.676169537136298</v>
+        <v>3.414057840588947</v>
       </c>
       <c r="AO19">
-        <v>3.463320568938566</v>
+        <v>3.446497438194984</v>
       </c>
       <c r="AP19">
         <v>3.293290997728171</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>0.8010365855660728</v>
-      </c>
       <c r="AJ20">
-        <v>1.088129121142245</v>
+        <v>0.8705224721376137</v>
       </c>
       <c r="AK20">
-        <v>1.201816812646572</v>
+        <v>1.115799877329837</v>
       </c>
       <c r="AL20">
-        <v>1.360305890846281</v>
+        <v>1.306383239036646</v>
       </c>
       <c r="AM20">
-        <v>1.372921474851796</v>
+        <v>1.342146019661561</v>
       </c>
       <c r="AN20">
-        <v>1.620572283829613</v>
+        <v>1.512751839239068</v>
       </c>
       <c r="AO20">
-        <v>1.564773093408878</v>
+        <v>1.554230939093526</v>
       </c>
       <c r="AP20">
-        <v>0.8446287801135322</v>
+        <v>1.719850910752752</v>
       </c>
       <c r="AQ20">
-        <v>0.3757906428468516</v>
+        <v>1.040278435874376</v>
       </c>
       <c r="AR20">
-        <v>-0.3214161021417694</v>
+        <v>-0.0421033901841894</v>
       </c>
       <c r="AS20">
-        <v>-0.2871245688614854</v>
+        <v>-0.1861140102549452</v>
       </c>
       <c r="AT20">
         <v>-0.2814561130375925</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.271625118535846</v>
-      </c>
       <c r="AN21">
-        <v>1.287608442913313</v>
+        <v>1.32813680535262</v>
       </c>
       <c r="AO21">
-        <v>1.244941781082498</v>
+        <v>1.266996785035102</v>
       </c>
       <c r="AP21">
-        <v>1.260616993691754</v>
+        <v>1.252209803563131</v>
       </c>
       <c r="AQ21">
-        <v>0.9948355516059104</v>
+        <v>1.230639348888696</v>
       </c>
       <c r="AR21">
-        <v>0.7147372843446353</v>
+        <v>0.9482719518098204</v>
       </c>
       <c r="AS21">
-        <v>0.6102115809060393</v>
+        <v>0.8101552644408594</v>
       </c>
       <c r="AT21">
-        <v>0.2005659760944134</v>
+        <v>0.5150746350407909</v>
       </c>
       <c r="AU21">
-        <v>-0.2492807705659184</v>
+        <v>0.007352720904374443</v>
       </c>
       <c r="AV21">
-        <v>-0.968109702189679</v>
+        <v>-0.7190724997773068</v>
       </c>
       <c r="AW21">
-        <v>-0.9636841177852018</v>
+        <v>-0.8745727750051557</v>
       </c>
       <c r="AX21">
         <v>-0.6470065423293869</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>1.048266669282127</v>
-      </c>
       <c r="AR22">
-        <v>0.9343791318352057</v>
+        <v>1.032622578428088</v>
       </c>
       <c r="AS22">
-        <v>0.9121753253007236</v>
+        <v>0.9574216289758075</v>
       </c>
       <c r="AT22">
-        <v>0.916568999228784</v>
+        <v>0.9043879613106487</v>
       </c>
       <c r="AU22">
-        <v>0.8813011048662167</v>
+        <v>0.9174245618496224</v>
       </c>
       <c r="AV22">
-        <v>0.7595446561616592</v>
+        <v>0.881597784434196</v>
       </c>
       <c r="AW22">
-        <v>0.6943677713693308</v>
+        <v>0.8126800125295874</v>
       </c>
       <c r="AX22">
-        <v>1.323978403813442</v>
+        <v>1.208720904184801</v>
       </c>
       <c r="AY22">
-        <v>2.491204377935397</v>
+        <v>2.09630020120315</v>
       </c>
       <c r="AZ22">
-        <v>1.686416487556031</v>
+        <v>1.774363263045231</v>
       </c>
       <c r="BA22">
-        <v>2.053865394798304</v>
+        <v>2.07713872880797</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.8809617769241163</v>
-      </c>
       <c r="AV23">
-        <v>0.8796449851113275</v>
+        <v>0.8620130230921896</v>
       </c>
       <c r="AW23">
-        <v>0.9290199217236284</v>
+        <v>0.8924993113619939</v>
       </c>
       <c r="AX23">
-        <v>0.9973119361644578</v>
+        <v>1.002156362735263</v>
       </c>
       <c r="AY23">
-        <v>1.132843697158092</v>
+        <v>0.9920392298766512</v>
       </c>
       <c r="AZ23">
-        <v>0.8971523338365817</v>
+        <v>0.9714810761510817</v>
       </c>
       <c r="BA23">
-        <v>0.9854119532296979</v>
+        <v>1.05516023322334</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>1.140517085831916</v>
-      </c>
       <c r="AZ24">
-        <v>1.046607485660078</v>
+        <v>1.082278542896953</v>
       </c>
       <c r="BA24">
-        <v>1.04668205852938</v>
+        <v>1.09101148098536</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>-0.8792832172735632</v>
+      </c>
+      <c r="G3">
+        <v>-0.9660231000212183</v>
+      </c>
+      <c r="H3">
+        <v>-1.117427301917984</v>
+      </c>
+      <c r="I3">
+        <v>-1.271358829139191</v>
+      </c>
+      <c r="J3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="K3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="L3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="M3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="N3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="O3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="P3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Q3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="R3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="S3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="T3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="U3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="V3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="W3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="X3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Y3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Z3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AA3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AB3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AC3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AD3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AE3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AF3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AG3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AH3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AI3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AK3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AL3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AM3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AN3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AO3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AP3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AR3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AS3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AT3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AU3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AV3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AW3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AX3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AY3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AZ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="BA3">
+        <v>-1.639753924881249</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>1.144978573787081</v>
-      </c>
-      <c r="C4">
-        <v>1.028506161176068</v>
-      </c>
-      <c r="D4">
-        <v>1.206584777779152</v>
-      </c>
-      <c r="E4">
-        <v>1.206584777779152</v>
-      </c>
-      <c r="F4">
-        <v>1.219200732230608</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>1.219200732230608</v>
+        <v>-0.5865396705125869</v>
       </c>
       <c r="H4">
-        <v>1.219200732230608</v>
+        <v>0.9337833426867226</v>
       </c>
       <c r="I4">
-        <v>1.219200732230608</v>
+        <v>0.8402098845508466</v>
       </c>
       <c r="J4">
-        <v>1.219200732230608</v>
+        <v>0.8292345478106533</v>
       </c>
       <c r="K4">
-        <v>1.219200732230608</v>
+        <v>0.8292345478106533</v>
       </c>
       <c r="L4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="M4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="N4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="O4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="P4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Q4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="R4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="S4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="T4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="U4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="V4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="W4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="X4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Y4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Z4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AA4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AB4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AC4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AD4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AE4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AF4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AG4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AH4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AI4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AJ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AK4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AL4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AM4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AN4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AO4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AP4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AQ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AR4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AS4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AT4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AU4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AV4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AW4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AX4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AY4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AZ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="BA4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>1.381024225294869</v>
-      </c>
-      <c r="E5">
-        <v>1.42876627319084</v>
-      </c>
-      <c r="F5">
-        <v>1.356047291861184</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>1.356047291861184</v>
+        <v>0.8461488352962565</v>
       </c>
       <c r="H5">
-        <v>0.776457080299342</v>
+        <v>2.776721259569026</v>
       </c>
       <c r="I5">
-        <v>0.776457080299342</v>
+        <v>2.46453841416181</v>
       </c>
       <c r="J5">
-        <v>0.776457080299342</v>
+        <v>2.791140000794257</v>
       </c>
       <c r="K5">
-        <v>0.776457080299342</v>
+        <v>2.864443198590783</v>
       </c>
       <c r="L5">
-        <v>0.776457080299342</v>
+        <v>3.022590861563312</v>
       </c>
       <c r="M5">
-        <v>0.776457080299342</v>
+        <v>3.022590861563312</v>
       </c>
       <c r="N5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="O5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="P5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Q5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="R5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="S5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="T5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="U5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="V5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="W5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="X5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Y5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Z5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AA5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AB5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AC5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AD5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AE5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AF5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AG5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AH5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AI5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AJ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AK5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AL5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AM5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AN5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AO5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AP5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AQ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AR5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AS5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AT5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AU5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AV5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AW5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AX5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AY5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AZ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="BA5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>-0.8792832172735965</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-0.9660231000212405</v>
+        <v>0.8187347723957572</v>
       </c>
       <c r="H6">
-        <v>-1.117427301917973</v>
+        <v>1.266320152886902</v>
       </c>
       <c r="I6">
-        <v>-1.27135882913918</v>
+        <v>1.28310667004905</v>
       </c>
       <c r="J6">
-        <v>-1.639753924881238</v>
+        <v>1.397663935193183</v>
       </c>
       <c r="K6">
-        <v>-1.639753924881238</v>
+        <v>1.024488446359717</v>
       </c>
       <c r="L6">
-        <v>-1.639753924881238</v>
+        <v>0.4451370000809529</v>
       </c>
       <c r="M6">
-        <v>-1.639753924881238</v>
+        <v>0.502368887556881</v>
       </c>
       <c r="N6">
-        <v>-1.639753924881238</v>
+        <v>0.5820920650085659</v>
       </c>
       <c r="O6">
-        <v>-1.639753924881238</v>
+        <v>0.5820920650085659</v>
       </c>
       <c r="P6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Q6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="R6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="S6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="T6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="U6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="V6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="W6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="X6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Y6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Z6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AA6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AB6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AC6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AD6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AE6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AF6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AG6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AH6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AI6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AJ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AK6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AL6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AM6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AN6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AO6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AP6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AQ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AR6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AS6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AT6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AU6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AV6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AW6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AX6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AY6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AZ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="BA6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>-0.5865396705125869</v>
-      </c>
-      <c r="H7">
-        <v>0.9337833426867448</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>0.8402098845508466</v>
+        <v>1.16810290239675</v>
       </c>
       <c r="J7">
-        <v>0.8292345478106755</v>
+        <v>1.198828713676492</v>
       </c>
       <c r="K7">
-        <v>0.8292345478106755</v>
+        <v>0.8839967283094108</v>
       </c>
       <c r="L7">
-        <v>1.146671111633779</v>
+        <v>0.1571217018783377</v>
       </c>
       <c r="M7">
-        <v>1.146671111633779</v>
+        <v>-0.265088720621609</v>
       </c>
       <c r="N7">
-        <v>1.146671111633779</v>
+        <v>0.2545814083968478</v>
       </c>
       <c r="O7">
-        <v>1.146671111633779</v>
+        <v>0.3132191478737889</v>
       </c>
       <c r="P7">
-        <v>1.146671111633779</v>
+        <v>0.2793044818785395</v>
       </c>
       <c r="Q7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="R7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="S7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="T7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="U7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="V7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="W7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="X7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="Y7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="Z7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AA7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AB7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AC7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AD7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AE7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AF7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AG7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AH7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AI7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AJ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AK7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AL7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AM7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AN7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AO7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AP7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AQ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AR7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AS7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AT7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AU7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AV7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AW7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AX7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AY7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AZ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="BA7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>0.8461488352962343</v>
-      </c>
-      <c r="H8">
-        <v>2.776721259569048</v>
-      </c>
-      <c r="I8">
-        <v>2.46453841416181</v>
-      </c>
-      <c r="J8">
-        <v>2.791140000794279</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>2.864443198590783</v>
+        <v>1.099496278796086</v>
       </c>
       <c r="L8">
-        <v>3.022590861563312</v>
+        <v>0.9471792481293928</v>
       </c>
       <c r="M8">
-        <v>3.022590861563312</v>
+        <v>0.7934423576064997</v>
       </c>
       <c r="N8">
-        <v>3.235358612404027</v>
+        <v>1.564494423159402</v>
       </c>
       <c r="O8">
-        <v>3.235358612404027</v>
+        <v>2.011885157458737</v>
       </c>
       <c r="P8">
-        <v>3.235358612404027</v>
+        <v>1.297015177357297</v>
       </c>
       <c r="Q8">
-        <v>3.235358612404027</v>
+        <v>1.308067824417058</v>
       </c>
       <c r="R8">
-        <v>3.235358612404027</v>
+        <v>1.416366389268031</v>
       </c>
       <c r="S8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="T8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="U8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="V8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="W8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="X8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="Y8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="Z8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AA8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AB8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AC8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AD8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AE8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AF8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AG8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AH8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AI8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AJ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AK8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AL8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AM8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AN8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AO8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AP8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AQ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AR8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AS8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AT8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AU8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AV8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AW8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AX8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AY8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AZ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="BA8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>0.8187347723957572</v>
-      </c>
-      <c r="H9">
-        <v>1.266320152886879</v>
-      </c>
-      <c r="I9">
-        <v>1.283106670049072</v>
-      </c>
-      <c r="J9">
-        <v>1.397663935193227</v>
-      </c>
-      <c r="K9">
-        <v>1.024488446359717</v>
-      </c>
-      <c r="L9">
-        <v>0.4451370000809973</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.5023688875569254</v>
+        <v>0.928820898782412</v>
       </c>
       <c r="N9">
-        <v>0.5820920650085881</v>
+        <v>1.169525895320178</v>
       </c>
       <c r="O9">
-        <v>0.5820920650085881</v>
+        <v>1.708833114833608</v>
       </c>
       <c r="P9">
-        <v>0.2616707458898082</v>
+        <v>0.4654670911270031</v>
       </c>
       <c r="Q9">
-        <v>0.2616707458898082</v>
+        <v>1.582403480979067</v>
       </c>
       <c r="R9">
-        <v>0.2616707458898082</v>
+        <v>1.365576377841027</v>
       </c>
       <c r="S9">
-        <v>0.2616707458898082</v>
+        <v>1.351085699872168</v>
       </c>
       <c r="T9">
-        <v>0.2616707458898082</v>
+        <v>1.257259712492265</v>
       </c>
       <c r="U9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="V9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="W9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="X9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="Y9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="Z9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AA9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AB9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AC9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AD9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AE9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AF9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AG9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AH9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AI9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AJ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AK9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AL9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AM9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AN9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AO9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AP9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AQ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AR9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AS9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AT9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AU9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AV9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AW9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AX9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AY9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AZ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="BA9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>1.168102902396728</v>
-      </c>
-      <c r="J10">
-        <v>1.19882871367647</v>
-      </c>
-      <c r="K10">
-        <v>0.883996728309433</v>
-      </c>
-      <c r="L10">
-        <v>0.1571217018783377</v>
-      </c>
-      <c r="M10">
-        <v>-0.2650887206215868</v>
-      </c>
-      <c r="N10">
-        <v>0.2545814083968478</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.3132191478738111</v>
+        <v>1.27310988876248</v>
       </c>
       <c r="P10">
-        <v>0.2793044818785173</v>
+        <v>0.93522061998359</v>
       </c>
       <c r="Q10">
-        <v>0.224159170712146</v>
+        <v>1.315455703544322</v>
       </c>
       <c r="R10">
-        <v>0.224159170712146</v>
+        <v>1.13561893405616</v>
       </c>
       <c r="S10">
-        <v>0.224159170712146</v>
+        <v>2.232192661479337</v>
       </c>
       <c r="T10">
-        <v>0.224159170712146</v>
+        <v>2.2044495746113</v>
       </c>
       <c r="U10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="V10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="W10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="X10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="Y10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="Z10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AA10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AB10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AC10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AD10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AE10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AF10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AG10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AH10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AI10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AJ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AK10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AL10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AM10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AN10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AO10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AP10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AQ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AR10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AS10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AT10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AU10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AV10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AW10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AX10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AY10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AZ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="BA10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.099496278796064</v>
-      </c>
-      <c r="L11">
-        <v>0.9471792481293928</v>
-      </c>
-      <c r="M11">
-        <v>0.7934423576064997</v>
-      </c>
-      <c r="N11">
-        <v>1.564494423159446</v>
-      </c>
-      <c r="O11">
-        <v>2.011885157458759</v>
-      </c>
-      <c r="P11">
-        <v>1.297015177357297</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.308067824417081</v>
+        <v>1.126573014606036</v>
       </c>
       <c r="R11">
-        <v>1.416366389268053</v>
+        <v>1.113184541977352</v>
       </c>
       <c r="S11">
-        <v>1.466097127690258</v>
+        <v>1.471326103602433</v>
       </c>
       <c r="T11">
-        <v>1.466097127690258</v>
+        <v>1.120909053655073</v>
       </c>
       <c r="U11">
-        <v>1.466097127690258</v>
+        <v>1.672539262716777</v>
       </c>
       <c r="V11">
-        <v>1.466097127690258</v>
+        <v>2.18621550610123</v>
       </c>
       <c r="W11">
-        <v>1.466097127690258</v>
+        <v>2.197155972241061</v>
       </c>
       <c r="X11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="Y11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="Z11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AA11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AB11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AC11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AD11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AE11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AF11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AG11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AH11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AI11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AJ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AK11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AL11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AM11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AN11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AO11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AP11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AQ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AR11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AS11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AT11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AU11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AV11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AW11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AX11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AY11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AZ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="BA11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.9288208987823898</v>
-      </c>
-      <c r="N12">
-        <v>1.1695258953202</v>
-      </c>
-      <c r="O12">
-        <v>1.708833114833652</v>
-      </c>
-      <c r="P12">
-        <v>0.4654670911270031</v>
-      </c>
-      <c r="Q12">
-        <v>1.582403480979067</v>
-      </c>
-      <c r="R12">
-        <v>1.365576377841027</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>1.351085699872145</v>
+        <v>1.228726619071652</v>
       </c>
       <c r="T12">
-        <v>1.257259712492242</v>
+        <v>1.18360592802611</v>
       </c>
       <c r="U12">
-        <v>1.254835209245964</v>
+        <v>1.230669741902624</v>
       </c>
       <c r="V12">
-        <v>1.254835209245964</v>
+        <v>2.012342079251583</v>
       </c>
       <c r="W12">
-        <v>1.254835209245964</v>
+        <v>1.563995324226086</v>
       </c>
       <c r="X12">
-        <v>1.254835209245964</v>
+        <v>1.547454231976442</v>
       </c>
       <c r="Y12">
-        <v>1.254835209245964</v>
+        <v>1.893001630463798</v>
       </c>
       <c r="Z12">
-        <v>1.254835209245964</v>
+        <v>1.911050033324102</v>
       </c>
       <c r="AA12">
-        <v>1.254835209245964</v>
+        <v>1.91613940919908</v>
       </c>
       <c r="AB12">
-        <v>1.254835209245964</v>
+        <v>1.911050033324102</v>
       </c>
       <c r="AC12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AD12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AE12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AF12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AG12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AH12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AI12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AJ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AK12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AL12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AM12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AN12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AO12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AP12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AQ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AR12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AS12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AT12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AU12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AV12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AW12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AX12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AY12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AZ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="BA12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>1.273109888762503</v>
-      </c>
-      <c r="P13">
-        <v>0.9352206199835456</v>
-      </c>
-      <c r="Q13">
-        <v>1.315455703544299</v>
-      </c>
-      <c r="R13">
-        <v>1.13561893405616</v>
-      </c>
-      <c r="S13">
-        <v>2.232192661479382</v>
-      </c>
-      <c r="T13">
-        <v>2.204449574611278</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.247112760224135</v>
+        <v>1.22926769246019</v>
       </c>
       <c r="V13">
-        <v>2.247112760224135</v>
+        <v>1.318505815599491</v>
       </c>
       <c r="W13">
-        <v>2.247112760224135</v>
+        <v>1.203280089861614</v>
       </c>
       <c r="X13">
-        <v>2.247112760224135</v>
+        <v>1.200013281595758</v>
       </c>
       <c r="Y13">
-        <v>2.247112760224135</v>
+        <v>1.606834725278339</v>
       </c>
       <c r="Z13">
-        <v>2.247112760224135</v>
+        <v>1.897633937626786</v>
       </c>
       <c r="AA13">
-        <v>2.247112760224135</v>
+        <v>1.619424880403764</v>
       </c>
       <c r="AB13">
-        <v>2.247112760224135</v>
+        <v>1.38081141536881</v>
       </c>
       <c r="AC13">
-        <v>2.247112760224135</v>
+        <v>1.596479532352513</v>
       </c>
       <c r="AD13">
-        <v>2.247112760224135</v>
+        <v>1.457852003181337</v>
       </c>
       <c r="AE13">
-        <v>2.247112760224135</v>
+        <v>1.358093434244112</v>
       </c>
       <c r="AF13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AG13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AH13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AI13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AJ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AK13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AL13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AM13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AN13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AO13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AP13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AQ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AR13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AS13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AT13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AU13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AV13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AW13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AX13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AY13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AZ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="BA13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.126573014606058</v>
-      </c>
-      <c r="R14">
-        <v>1.113184541977308</v>
-      </c>
-      <c r="S14">
-        <v>1.471326103602411</v>
-      </c>
-      <c r="T14">
-        <v>1.120909053655028</v>
-      </c>
-      <c r="U14">
-        <v>1.672539262716755</v>
-      </c>
-      <c r="V14">
-        <v>2.18621550610123</v>
-      </c>
-      <c r="W14">
-        <v>2.197155972241038</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.23122668424911</v>
+        <v>1.195745795265379</v>
       </c>
       <c r="Y14">
-        <v>2.23122668424911</v>
+        <v>1.195949292602316</v>
       </c>
       <c r="Z14">
-        <v>2.23122668424911</v>
+        <v>1.226262711792181</v>
       </c>
       <c r="AA14">
-        <v>2.23122668424911</v>
+        <v>1.295640847135271</v>
       </c>
       <c r="AB14">
-        <v>2.23122668424911</v>
+        <v>1.063817241834686</v>
       </c>
       <c r="AC14">
-        <v>2.23122668424911</v>
+        <v>1.176451344144414</v>
       </c>
       <c r="AD14">
-        <v>2.23122668424911</v>
+        <v>0.5018989042238076</v>
       </c>
       <c r="AE14">
-        <v>2.23122668424911</v>
+        <v>0.8907338066868276</v>
       </c>
       <c r="AF14">
-        <v>2.23122668424911</v>
+        <v>-0.9147268599429048</v>
       </c>
       <c r="AG14">
-        <v>2.23122668424911</v>
+        <v>-5.423670413205217</v>
       </c>
       <c r="AH14">
-        <v>2.23122668424911</v>
+        <v>-3.258619210312896</v>
       </c>
       <c r="AI14">
-        <v>2.23122668424911</v>
+        <v>-3.312413209132492</v>
       </c>
       <c r="AJ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AK14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AL14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AM14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AN14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AO14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AP14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AQ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AR14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AS14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AT14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AU14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AV14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AW14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AX14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AY14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AZ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="BA14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.22872661907163</v>
-      </c>
-      <c r="T15">
-        <v>1.183605928026177</v>
-      </c>
-      <c r="U15">
-        <v>1.230669741902624</v>
-      </c>
-      <c r="V15">
-        <v>2.012342079251583</v>
-      </c>
-      <c r="W15">
-        <v>1.563995324226086</v>
-      </c>
-      <c r="X15">
-        <v>1.547454231976442</v>
-      </c>
-      <c r="Y15">
-        <v>1.893001630463798</v>
-      </c>
-      <c r="Z15">
-        <v>1.911050033324102</v>
-      </c>
-      <c r="AA15">
-        <v>1.916139409199058</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.911050033324102</v>
+        <v>1.146943832585889</v>
       </c>
       <c r="AC15">
-        <v>1.74379831133713</v>
+        <v>1.231081786214361</v>
       </c>
       <c r="AD15">
-        <v>1.74379831133713</v>
+        <v>1.077894501595478</v>
       </c>
       <c r="AE15">
-        <v>1.74379831133713</v>
+        <v>1.224374415316887</v>
       </c>
       <c r="AF15">
-        <v>1.74379831133713</v>
+        <v>0.1022244835662267</v>
       </c>
       <c r="AG15">
-        <v>1.74379831133713</v>
+        <v>-13.50936601867714</v>
       </c>
       <c r="AH15">
-        <v>1.74379831133713</v>
+        <v>-1.055440300316746</v>
       </c>
       <c r="AI15">
-        <v>1.74379831133713</v>
+        <v>-0.7303748984839098</v>
       </c>
       <c r="AJ15">
-        <v>1.74379831133713</v>
+        <v>-1.272609278145886</v>
       </c>
       <c r="AK15">
-        <v>1.74379831133713</v>
+        <v>-0.4696916954088914</v>
       </c>
       <c r="AL15">
-        <v>1.74379831133713</v>
+        <v>0.4255262881966759</v>
       </c>
       <c r="AM15">
-        <v>1.74379831133713</v>
+        <v>0.3378790965023581</v>
       </c>
       <c r="AN15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AO15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AP15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AQ15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AR15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AS15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AT15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AU15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AV15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AW15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AX15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AY15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AZ15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="BA15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.22926769246019</v>
-      </c>
-      <c r="V16">
-        <v>1.318505815599513</v>
-      </c>
-      <c r="W16">
-        <v>1.203280089861591</v>
-      </c>
-      <c r="X16">
-        <v>1.200013281595735</v>
-      </c>
-      <c r="Y16">
-        <v>1.606834725278361</v>
-      </c>
-      <c r="Z16">
-        <v>1.897633937626764</v>
-      </c>
-      <c r="AA16">
-        <v>1.619424880403786</v>
-      </c>
-      <c r="AB16">
-        <v>1.380811415368788</v>
-      </c>
-      <c r="AC16">
-        <v>1.596479532352513</v>
-      </c>
-      <c r="AD16">
-        <v>1.457852003181337</v>
-      </c>
-      <c r="AE16">
-        <v>1.358093434244134</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>1.627508371112341</v>
+        <v>0.871492095125892</v>
       </c>
       <c r="AG16">
-        <v>1.627508371112341</v>
+        <v>-5.340195697197514</v>
       </c>
       <c r="AH16">
-        <v>1.627508371112341</v>
+        <v>0.7863250618339146</v>
       </c>
       <c r="AI16">
-        <v>1.627508371112341</v>
+        <v>0.791924237144892</v>
       </c>
       <c r="AJ16">
-        <v>1.627508371112341</v>
+        <v>0.7102324065039856</v>
       </c>
       <c r="AK16">
-        <v>1.627508371112341</v>
+        <v>1.312034829159958</v>
       </c>
       <c r="AL16">
-        <v>1.627508371112341</v>
+        <v>2.531417074021181</v>
       </c>
       <c r="AM16">
-        <v>1.627508371112341</v>
+        <v>2.421601157547548</v>
       </c>
       <c r="AN16">
-        <v>1.627508371112341</v>
+        <v>3.414057840588924</v>
       </c>
       <c r="AO16">
-        <v>1.627508371112341</v>
+        <v>3.446497438194984</v>
       </c>
       <c r="AP16">
-        <v>1.627508371112341</v>
+        <v>3.293290997728171</v>
       </c>
       <c r="AQ16">
-        <v>1.627508371112341</v>
+        <v>3.16464878088103</v>
       </c>
       <c r="AR16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AS16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AT16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AU16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AV16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AW16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AX16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AY16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AZ16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="BA16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.195745795265379</v>
-      </c>
-      <c r="Y17">
-        <v>1.195949292602339</v>
-      </c>
-      <c r="Z17">
-        <v>1.226262711792203</v>
-      </c>
-      <c r="AA17">
-        <v>1.295640847135293</v>
-      </c>
-      <c r="AB17">
-        <v>1.063817241834708</v>
-      </c>
-      <c r="AC17">
-        <v>1.176451344144391</v>
-      </c>
-      <c r="AD17">
-        <v>0.5018989042238298</v>
-      </c>
-      <c r="AE17">
-        <v>0.8907338066868498</v>
-      </c>
-      <c r="AF17">
-        <v>-0.9147268599428826</v>
-      </c>
-      <c r="AG17">
-        <v>-5.423670413205206</v>
-      </c>
-      <c r="AH17">
-        <v>-3.258619210312885</v>
-      </c>
-      <c r="AI17">
-        <v>-3.31241320913247</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-3.216704811113158</v>
+        <v>0.8705224721375915</v>
       </c>
       <c r="AK17">
-        <v>-3.216704811113158</v>
+        <v>1.115799877329837</v>
       </c>
       <c r="AL17">
-        <v>-3.216704811113158</v>
+        <v>1.306383239036646</v>
       </c>
       <c r="AM17">
-        <v>-3.216704811113158</v>
+        <v>1.342146019661583</v>
       </c>
       <c r="AN17">
-        <v>-3.216704811113158</v>
+        <v>1.51275183923909</v>
       </c>
       <c r="AO17">
-        <v>-3.216704811113158</v>
+        <v>1.554230939093526</v>
       </c>
       <c r="AP17">
-        <v>-3.216704811113158</v>
+        <v>1.719850910752729</v>
       </c>
       <c r="AQ17">
-        <v>-3.216704811113158</v>
+        <v>1.040278435874398</v>
       </c>
       <c r="AR17">
-        <v>-3.216704811113158</v>
+        <v>-0.0421033901841561</v>
       </c>
       <c r="AS17">
-        <v>-3.216704811113158</v>
+        <v>-0.1861140102549341</v>
       </c>
       <c r="AT17">
-        <v>-3.216704811113158</v>
+        <v>-0.2814561130375703</v>
       </c>
       <c r="AU17">
-        <v>-3.216704811113158</v>
+        <v>-0.280872493597617</v>
       </c>
       <c r="AV17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AW17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AX17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AY17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AZ17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="BA17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.146943832585912</v>
-      </c>
-      <c r="AC18">
-        <v>1.231081786214339</v>
-      </c>
-      <c r="AD18">
-        <v>1.0778945015955</v>
-      </c>
-      <c r="AE18">
-        <v>1.224374415316887</v>
-      </c>
-      <c r="AF18">
-        <v>0.1022244835662045</v>
-      </c>
-      <c r="AG18">
-        <v>-13.50936601867715</v>
-      </c>
-      <c r="AH18">
-        <v>-1.055440300316768</v>
-      </c>
-      <c r="AI18">
-        <v>-0.7303748984839098</v>
-      </c>
-      <c r="AJ18">
-        <v>-1.272609278145864</v>
-      </c>
-      <c r="AK18">
-        <v>-0.4696916954089025</v>
-      </c>
-      <c r="AL18">
-        <v>0.4255262881966981</v>
-      </c>
-      <c r="AM18">
-        <v>0.3378790965023581</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>0.3702368369074227</v>
+        <v>1.32813680535262</v>
       </c>
       <c r="AO18">
-        <v>0.3702368369074227</v>
+        <v>1.266996785035079</v>
       </c>
       <c r="AP18">
-        <v>0.3702368369074227</v>
+        <v>1.252209803563131</v>
       </c>
       <c r="AQ18">
-        <v>0.3702368369074227</v>
+        <v>1.230639348888651</v>
       </c>
       <c r="AR18">
-        <v>0.3702368369074227</v>
+        <v>0.9482719518097982</v>
       </c>
       <c r="AS18">
-        <v>0.3702368369074227</v>
+        <v>0.8101552644408594</v>
       </c>
       <c r="AT18">
-        <v>0.3702368369074227</v>
+        <v>0.5150746350407909</v>
       </c>
       <c r="AU18">
-        <v>0.3702368369074227</v>
+        <v>0.007352720904374443</v>
       </c>
       <c r="AV18">
-        <v>0.3702368369074227</v>
+        <v>-0.7190724997772957</v>
       </c>
       <c r="AW18">
-        <v>0.3702368369074227</v>
+        <v>-0.8745727750051446</v>
       </c>
       <c r="AX18">
-        <v>0.3702368369074227</v>
+        <v>-0.6470065423293758</v>
       </c>
       <c r="AY18">
-        <v>0.3702368369074227</v>
+        <v>-0.6056569328546479</v>
       </c>
       <c r="AZ18">
-        <v>0.3702368369074227</v>
+        <v>-0.5776350899065585</v>
       </c>
       <c r="BA18">
-        <v>0.3702368369074227</v>
+        <v>-0.5776350899065585</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>0.871492095125892</v>
-      </c>
-      <c r="AG19">
-        <v>-5.340195697197514</v>
-      </c>
-      <c r="AH19">
-        <v>0.7863250618339368</v>
-      </c>
-      <c r="AI19">
-        <v>0.7919242371448698</v>
-      </c>
-      <c r="AJ19">
-        <v>0.7102324065039856</v>
-      </c>
-      <c r="AK19">
-        <v>1.31203482915998</v>
-      </c>
-      <c r="AL19">
-        <v>2.531417074021203</v>
-      </c>
-      <c r="AM19">
-        <v>2.421601157547526</v>
-      </c>
-      <c r="AN19">
-        <v>3.414057840588947</v>
-      </c>
-      <c r="AO19">
-        <v>3.446497438194984</v>
-      </c>
-      <c r="AP19">
-        <v>3.293290997728171</v>
-      </c>
-      <c r="AQ19">
-        <v>3.164648780881052</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>3.384864575578228</v>
+        <v>1.032622578428088</v>
       </c>
       <c r="AS19">
-        <v>3.384864575578228</v>
+        <v>0.9574216289758075</v>
       </c>
       <c r="AT19">
-        <v>3.384864575578228</v>
+        <v>0.9043879613106709</v>
       </c>
       <c r="AU19">
-        <v>3.384864575578228</v>
+        <v>0.9174245618496668</v>
       </c>
       <c r="AV19">
-        <v>3.384864575578228</v>
+        <v>0.8815977844341738</v>
       </c>
       <c r="AW19">
-        <v>3.384864575578228</v>
+        <v>0.8126800125295874</v>
       </c>
       <c r="AX19">
-        <v>3.384864575578228</v>
+        <v>1.208720904184779</v>
       </c>
       <c r="AY19">
-        <v>3.384864575578228</v>
+        <v>2.09630020120315</v>
       </c>
       <c r="AZ19">
-        <v>3.384864575578228</v>
+        <v>1.774363263045231</v>
       </c>
       <c r="BA19">
-        <v>3.384864575578228</v>
+        <v>2.077138728807948</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>0.8705224721376137</v>
-      </c>
-      <c r="AK20">
-        <v>1.115799877329837</v>
-      </c>
-      <c r="AL20">
-        <v>1.306383239036646</v>
-      </c>
-      <c r="AM20">
-        <v>1.342146019661561</v>
-      </c>
-      <c r="AN20">
-        <v>1.512751839239068</v>
-      </c>
-      <c r="AO20">
-        <v>1.554230939093526</v>
-      </c>
-      <c r="AP20">
-        <v>1.719850910752752</v>
-      </c>
-      <c r="AQ20">
-        <v>1.040278435874376</v>
-      </c>
-      <c r="AR20">
-        <v>-0.0421033901841894</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1861140102549452</v>
-      </c>
-      <c r="AT20">
-        <v>-0.2814561130375925</v>
-      </c>
-      <c r="AU20">
-        <v>-0.2808724935976281</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.0770690339079394</v>
+        <v>0.8620130230921896</v>
       </c>
       <c r="AW20">
-        <v>-0.0770690339079394</v>
+        <v>0.8924993113619939</v>
       </c>
       <c r="AX20">
-        <v>-0.0770690339079394</v>
+        <v>1.002156362735285</v>
       </c>
       <c r="AY20">
-        <v>-0.0770690339079394</v>
+        <v>0.9920392298766734</v>
       </c>
       <c r="AZ20">
-        <v>-0.0770690339079394</v>
+        <v>0.9714810761510373</v>
       </c>
       <c r="BA20">
-        <v>-0.0770690339079394</v>
+        <v>1.055160233223318</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>1.32813680535262</v>
-      </c>
-      <c r="AO21">
-        <v>1.266996785035102</v>
-      </c>
-      <c r="AP21">
-        <v>1.252209803563131</v>
-      </c>
-      <c r="AQ21">
-        <v>1.230639348888696</v>
-      </c>
-      <c r="AR21">
-        <v>0.9482719518098204</v>
-      </c>
-      <c r="AS21">
-        <v>0.8101552644408594</v>
-      </c>
-      <c r="AT21">
-        <v>0.5150746350407909</v>
-      </c>
-      <c r="AU21">
-        <v>0.007352720904374443</v>
-      </c>
-      <c r="AV21">
-        <v>-0.7190724997773068</v>
-      </c>
-      <c r="AW21">
-        <v>-0.8745727750051557</v>
-      </c>
-      <c r="AX21">
-        <v>-0.6470065423293869</v>
-      </c>
-      <c r="AY21">
-        <v>-0.605656932854659</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.5776350899065585</v>
+        <v>1.082278542896953</v>
       </c>
       <c r="BA21">
-        <v>-0.5776350899065585</v>
+        <v>1.09101148098536</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.032622578428088</v>
-      </c>
-      <c r="AS22">
-        <v>0.9574216289758075</v>
-      </c>
-      <c r="AT22">
-        <v>0.9043879613106487</v>
-      </c>
-      <c r="AU22">
-        <v>0.9174245618496224</v>
-      </c>
-      <c r="AV22">
-        <v>0.881597784434196</v>
-      </c>
-      <c r="AW22">
-        <v>0.8126800125295874</v>
-      </c>
-      <c r="AX22">
-        <v>1.208720904184801</v>
-      </c>
-      <c r="AY22">
-        <v>2.09630020120315</v>
-      </c>
-      <c r="AZ22">
-        <v>1.774363263045231</v>
-      </c>
-      <c r="BA22">
-        <v>2.07713872880797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.8620130230921896</v>
-      </c>
-      <c r="AW23">
-        <v>0.8924993113619939</v>
-      </c>
-      <c r="AX23">
-        <v>1.002156362735263</v>
-      </c>
-      <c r="AY23">
-        <v>0.9920392298766512</v>
-      </c>
-      <c r="AZ23">
-        <v>0.9714810761510817</v>
-      </c>
-      <c r="BA23">
-        <v>1.05516023322334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>1.082278542896953</v>
-      </c>
-      <c r="BA24">
-        <v>1.09101148098536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>-1.639753924881249</v>
       </c>
+      <c r="BB3">
+        <v>-1.639753924881249</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>1.146671111633779</v>
       </c>
+      <c r="BB4">
+        <v>1.146671111633779</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>3.235358612404049</v>
       </c>
+      <c r="BB5">
+        <v>3.235358612404049</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>0.261670745889786</v>
       </c>
+      <c r="BB6">
+        <v>0.261670745889786</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>0.2241591707121238</v>
       </c>
+      <c r="BB7">
+        <v>0.2241591707121238</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>1.466097127690258</v>
       </c>
+      <c r="BB8">
+        <v>1.466097127690258</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>1.254835209245964</v>
       </c>
+      <c r="BB9">
+        <v>1.254835209245964</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>2.247112760224157</v>
       </c>
+      <c r="BB10">
+        <v>2.247112760224157</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>2.23122668424911</v>
       </c>
+      <c r="BB11">
+        <v>2.23122668424911</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>1.74379831133713</v>
       </c>
+      <c r="BB12">
+        <v>1.74379831133713</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>1.627508371112341</v>
       </c>
+      <c r="BB13">
+        <v>1.627508371112341</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>-3.216704811113169</v>
       </c>
+      <c r="BB14">
+        <v>-3.216704811113169</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>0.3702368369074227</v>
       </c>
+      <c r="BB15">
+        <v>0.3702368369074227</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>3.384864575578206</v>
       </c>
+      <c r="BB16">
+        <v>3.384864575578206</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>-0.07706903390789499</v>
       </c>
+      <c r="BB17">
+        <v>-0.07706903390789499</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>-0.5776350899065585</v>
       </c>
+      <c r="BB18">
+        <v>-0.5776350899065585</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>2.077138728807948</v>
       </c>
+      <c r="BB19">
+        <v>2.043309689777173</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>1.055160233223318</v>
       </c>
+      <c r="BB20">
+        <v>1.002299702378884</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>1.09101148098536</v>
       </c>
+      <c r="BB21">
+        <v>1.046422855779872</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
